--- a/biology/Zoologie/Euplokamis/Euplokamis.xlsx
+++ b/biology/Zoologie/Euplokamis/Euplokamis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euplokamis est un genre de cténophores de l'ordre des Cydippida, le seul de la famille des Euplokamididae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (22 septembre 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (22 septembre 2019) :
 genre Euplokamis Chun, 1879
 Euplokamis crinita (Moser, 1909)
 Euplokamis dunlapae Mills, 1987
@@ -548,7 +562,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Famille des Euplokamididae :
 (fr + en) Claudia E. Mills, « Revised classification of the genus Euplokamis Chun, 1880 (Ctenophora: Cydippida: Euplokamidae n. fam.) with a description of the new species Euplokamis dunlapae », Revue canadienne de zoologie, Éditions Sciences Canada, vol. 65, no 11,‎ novembre 1987, p. 2661-2668 (ISSN 0008-4301 et 1480-3283, OCLC 39737158, DOI 10.1139/Z87-404)</t>
